--- a/media/generated_files/Citation - Coquitlam Imagine Ca.xlsx
+++ b/media/generated_files/Citation - Coquitlam Imagine Ca.xlsx
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://vicinitywayfind.com/?p=5686</t>
+          <t>https://vicinitywayfind.com/?p=5696</t>
         </is>
       </c>
     </row>

--- a/media/generated_files/Citation - Coquitlam Imagine Ca.xlsx
+++ b/media/generated_files/Citation - Coquitlam Imagine Ca.xlsx
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://vicinitywayfind.com/?p=5696</t>
+          <t>https://districtsearchers.com/?p=1971</t>
         </is>
       </c>
     </row>
